--- a/documents/人物属性表.xlsx
+++ b/documents/人物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="经验表" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -893,11 +892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162023680"/>
-        <c:axId val="162058240"/>
+        <c:axId val="5788032"/>
+        <c:axId val="157849856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162023680"/>
+        <c:axId val="5788032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162058240"/>
+        <c:crossAx val="157849856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162058240"/>
+        <c:axId val="157849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,14 +924,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162023680"/>
+        <c:crossAx val="5788032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1313,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A977" workbookViewId="0">
-      <selection activeCell="I987" sqref="I987"/>
+    <sheetView topLeftCell="A977" workbookViewId="0">
+      <selection activeCell="A1006" sqref="A1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1417,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <f t="shared" ref="B10:B51" si="0">(A10/5)*(A10/10)*500+B9</f>
+        <f t="shared" ref="B10:B20" si="0">(A10/5)*(A10/10)*500+B9</f>
         <v>1950</v>
       </c>
       <c r="C10" s="11"/>
@@ -13485,8 +13483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
@@ -19155,8 +19153,8 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -19280,7 +19278,7 @@
       </c>
       <c r="C3">
         <f>C2+Q3</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -19322,7 +19320,7 @@
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -19336,7 +19334,7 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="7">C3+Q4</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -19378,7 +19376,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -19392,7 +19390,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -19434,7 +19432,7 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -19448,7 +19446,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19490,7 +19488,7 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -19504,7 +19502,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19546,7 +19544,7 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -19560,7 +19558,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -19602,7 +19600,7 @@
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -19616,7 +19614,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -19658,7 +19656,7 @@
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -19672,7 +19670,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="7"/>
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -19714,7 +19712,7 @@
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -19728,7 +19726,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -19770,7 +19768,7 @@
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -19784,7 +19782,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -19826,7 +19824,7 @@
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -19840,7 +19838,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -19882,7 +19880,7 @@
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -19896,7 +19894,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -19938,7 +19936,7 @@
         <v>4</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -19952,7 +19950,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="7"/>
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -19994,7 +19992,7 @@
         <v>4</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -20008,7 +20006,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -20050,7 +20048,7 @@
         <v>4</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -20064,7 +20062,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -20106,7 +20104,7 @@
         <v>4</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -20120,7 +20118,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="7"/>
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -20162,7 +20160,7 @@
         <v>4</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -20176,7 +20174,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="7"/>
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -20218,7 +20216,7 @@
         <v>4</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -20232,7 +20230,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -20274,7 +20272,7 @@
         <v>4</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -20288,7 +20286,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -20330,7 +20328,7 @@
         <v>4</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -20344,7 +20342,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="7"/>
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -20386,7 +20384,7 @@
         <v>5</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -20400,7 +20398,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -20442,7 +20440,7 @@
         <v>5</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -20456,7 +20454,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -20498,7 +20496,7 @@
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -20512,7 +20510,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -20554,7 +20552,7 @@
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -20568,7 +20566,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -20610,7 +20608,7 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -20624,7 +20622,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="7"/>
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -20666,7 +20664,7 @@
         <v>5</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -20680,7 +20678,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -20722,7 +20720,7 @@
         <v>5</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -20736,7 +20734,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -20778,7 +20776,7 @@
         <v>5</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -20792,7 +20790,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -20834,7 +20832,7 @@
         <v>5</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -20848,7 +20846,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>431</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -20890,7 +20888,7 @@
         <v>5</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -20904,7 +20902,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -20946,7 +20944,7 @@
         <v>7</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -20960,7 +20958,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>481</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -21002,7 +21000,7 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -21016,7 +21014,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="7"/>
-        <v>320</v>
+        <v>506</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -21058,7 +21056,7 @@
         <v>7</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -21072,7 +21070,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="7"/>
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -21114,7 +21112,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -21128,7 +21126,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>556</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -21170,7 +21168,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -21184,7 +21182,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="7"/>
-        <v>380</v>
+        <v>581</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -21226,7 +21224,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -21240,7 +21238,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>606</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -21282,7 +21280,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -21296,7 +21294,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="7"/>
-        <v>420</v>
+        <v>631</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -21338,7 +21336,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -21352,7 +21350,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="7"/>
-        <v>440</v>
+        <v>656</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -21394,7 +21392,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -21408,7 +21406,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>460</v>
+        <v>681</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -21450,7 +21448,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -21464,7 +21462,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>490</v>
+        <v>716</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -21506,7 +21504,7 @@
         <v>10</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -21520,7 +21518,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>520</v>
+        <v>751</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -21562,7 +21560,7 @@
         <v>10</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
@@ -21576,7 +21574,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>550</v>
+        <v>786</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -21618,7 +21616,7 @@
         <v>10</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -21632,7 +21630,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>580</v>
+        <v>821</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -21674,7 +21672,7 @@
         <v>10</v>
       </c>
       <c r="Q45">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -21688,7 +21686,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>610</v>
+        <v>856</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -21730,7 +21728,7 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -21744,7 +21742,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>640</v>
+        <v>891</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -21786,7 +21784,7 @@
         <v>10</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -21800,7 +21798,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="7"/>
-        <v>670</v>
+        <v>926</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -21842,7 +21840,7 @@
         <v>10</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -21856,7 +21854,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="7"/>
-        <v>700</v>
+        <v>961</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -21898,7 +21896,7 @@
         <v>10</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -21912,7 +21910,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="7"/>
-        <v>730</v>
+        <v>996</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -21954,7 +21952,7 @@
         <v>10</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
@@ -21968,7 +21966,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="7"/>
-        <v>760</v>
+        <v>1031</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -22010,7 +22008,7 @@
         <v>10</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -22024,7 +22022,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>805</v>
+        <v>1076</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -22080,7 +22078,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>850</v>
+        <v>1121</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -22136,7 +22134,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>895</v>
+        <v>1166</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -22192,7 +22190,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>940</v>
+        <v>1211</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -22248,7 +22246,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>985</v>
+        <v>1256</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -22304,7 +22302,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>1030</v>
+        <v>1301</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -22360,7 +22358,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="7"/>
-        <v>1075</v>
+        <v>1346</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -22416,7 +22414,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="7"/>
-        <v>1120</v>
+        <v>1391</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -22472,7 +22470,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="7"/>
-        <v>1165</v>
+        <v>1436</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -22528,7 +22526,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="7"/>
-        <v>1210</v>
+        <v>1481</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -22584,7 +22582,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="7"/>
-        <v>1270</v>
+        <v>1541</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -22640,7 +22638,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="7"/>
-        <v>1330</v>
+        <v>1601</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -22696,7 +22694,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="7"/>
-        <v>1390</v>
+        <v>1661</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -22752,7 +22750,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="7"/>
-        <v>1450</v>
+        <v>1721</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -22808,7 +22806,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="7"/>
-        <v>1510</v>
+        <v>1781</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -22864,7 +22862,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="7"/>
-        <v>1570</v>
+        <v>1841</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -22920,7 +22918,7 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="16">C67+Q68</f>
-        <v>1630</v>
+        <v>1901</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -22976,7 +22974,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="16"/>
-        <v>1690</v>
+        <v>1961</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -23032,7 +23030,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="16"/>
-        <v>1750</v>
+        <v>2021</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -23088,7 +23086,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="16"/>
-        <v>1810</v>
+        <v>2081</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -23144,7 +23142,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="16"/>
-        <v>1890</v>
+        <v>2161</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -23200,7 +23198,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="16"/>
-        <v>1970</v>
+        <v>2241</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -23256,7 +23254,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="16"/>
-        <v>2050</v>
+        <v>2321</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -23312,7 +23310,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="16"/>
-        <v>2130</v>
+        <v>2401</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -23368,7 +23366,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="16"/>
-        <v>2210</v>
+        <v>2481</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -23424,7 +23422,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="16"/>
-        <v>2290</v>
+        <v>2561</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -23480,7 +23478,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="16"/>
-        <v>2370</v>
+        <v>2641</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -23536,7 +23534,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="16"/>
-        <v>2450</v>
+        <v>2721</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -23592,7 +23590,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="16"/>
-        <v>2530</v>
+        <v>2801</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -23648,7 +23646,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="16"/>
-        <v>2610</v>
+        <v>2881</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -23704,7 +23702,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="16"/>
-        <v>2720</v>
+        <v>2991</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -23760,7 +23758,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="16"/>
-        <v>2830</v>
+        <v>3101</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -23816,7 +23814,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="16"/>
-        <v>2940</v>
+        <v>3211</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -23872,7 +23870,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="16"/>
-        <v>3050</v>
+        <v>3321</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -23928,7 +23926,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="16"/>
-        <v>3160</v>
+        <v>3431</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -23984,7 +23982,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="16"/>
-        <v>3270</v>
+        <v>3541</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -24040,7 +24038,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="16"/>
-        <v>3380</v>
+        <v>3651</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -24096,7 +24094,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="16"/>
-        <v>3490</v>
+        <v>3761</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -24152,7 +24150,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="16"/>
-        <v>3600</v>
+        <v>3871</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -24208,7 +24206,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="16"/>
-        <v>3710</v>
+        <v>3981</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -24264,7 +24262,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="16"/>
-        <v>3850</v>
+        <v>4121</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -24320,7 +24318,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="16"/>
-        <v>3990</v>
+        <v>4261</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -24376,7 +24374,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="16"/>
-        <v>4130</v>
+        <v>4401</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -24432,7 +24430,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="16"/>
-        <v>4270</v>
+        <v>4541</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -24488,7 +24486,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="16"/>
-        <v>4410</v>
+        <v>4681</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -24544,7 +24542,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="16"/>
-        <v>4550</v>
+        <v>4821</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -24600,7 +24598,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="16"/>
-        <v>4690</v>
+        <v>4961</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -24656,7 +24654,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="16"/>
-        <v>4830</v>
+        <v>5101</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -24712,7 +24710,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="16"/>
-        <v>4970</v>
+        <v>5241</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -24768,7 +24766,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="16"/>
-        <v>5110</v>
+        <v>5381</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -24816,6 +24814,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24824,7 +24823,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>

--- a/documents/人物属性表.xlsx
+++ b/documents/人物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="经验表" sheetId="1" r:id="rId1"/>
@@ -892,11 +892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="5788032"/>
-        <c:axId val="157849856"/>
+        <c:axId val="62632320"/>
+        <c:axId val="62633856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5788032"/>
+        <c:axId val="62632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157849856"/>
+        <c:crossAx val="62633856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157849856"/>
+        <c:axId val="62633856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5788032"/>
+        <c:crossAx val="62632320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13483,9 +13483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13556,39 +13556,39 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f>INT($A2/2)</f>
+        <f>INT($A2/4)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>INT(($A2+1)/2)</f>
+        <f>INT(($A2+1)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>INT(A2/20)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>INT(A2/12)+1</f>
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>INT(A2/13)</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>INT(A2/7)+1</f>
-        <v>1</v>
-      </c>
       <c r="L2">
-        <f>INT(A2/15)</f>
+        <f>INT(A2/25)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>INT(A2/10)+1</f>
+        <f>INT(A2/20)+1</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -13612,39 +13612,39 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">INT($A3/2)</f>
+        <f t="shared" ref="D3:D66" si="0">INT($A3/4)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">INT(($A3+1)/3)</f>
         <v>1</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">INT(($A3+1)/2)</f>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="2">INT(A3/20)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="3">INT(A3/12)+1</f>
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="2">INT(A3/13)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="3">INT(A3/7)+1</f>
-        <v>1</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="4">INT(A3/15)</f>
+        <f t="shared" ref="L3:L66" si="4">INT(A3/25)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="5">INT(A3/10)+1</f>
+        <f t="shared" ref="M3:M66" si="5">INT(A3/20)+1</f>
         <v>1</v>
       </c>
       <c r="P3">
@@ -13669,11 +13669,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -13725,11 +13725,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13781,11 +13781,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13837,11 +13837,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13893,11 +13893,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
@@ -13949,11 +13949,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
@@ -14005,11 +14005,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
@@ -14061,11 +14061,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>5</v>
@@ -14117,11 +14117,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>10</v>
@@ -14173,11 +14173,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>10</v>
@@ -14229,11 +14229,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>10</v>
@@ -14285,11 +14285,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -14305,11 +14305,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -14341,11 +14341,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -14361,19 +14361,19 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>10</v>
@@ -14397,11 +14397,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -14417,19 +14417,19 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>10</v>
@@ -14453,11 +14453,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -14473,19 +14473,19 @@
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>10</v>
@@ -14509,11 +14509,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -14529,19 +14529,19 @@
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>10</v>
@@ -14565,11 +14565,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -14585,19 +14585,19 @@
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>10</v>
@@ -14621,11 +14621,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -14645,15 +14645,15 @@
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>10</v>
@@ -14677,11 +14677,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -14701,15 +14701,15 @@
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>15</v>
@@ -14733,11 +14733,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -14757,15 +14757,15 @@
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>15</v>
@@ -14789,11 +14789,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -14813,15 +14813,15 @@
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>15</v>
@@ -14845,11 +14845,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -14869,15 +14869,15 @@
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>15</v>
@@ -14901,11 +14901,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <v>15</v>
@@ -14957,11 +14957,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -14977,11 +14977,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>15</v>
@@ -15013,11 +15013,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -15033,11 +15033,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>15</v>
@@ -15069,11 +15069,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -15089,11 +15089,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>15</v>
@@ -15125,11 +15125,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -15145,11 +15145,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>15</v>
@@ -15181,11 +15181,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -15201,19 +15201,19 @@
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <v>15</v>
@@ -15237,11 +15237,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -15257,19 +15257,19 @@
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -15293,11 +15293,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -15313,19 +15313,19 @@
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -15349,11 +15349,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -15369,19 +15369,19 @@
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>20</v>
@@ -15405,11 +15405,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -15425,19 +15425,19 @@
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35">
         <v>20</v>
@@ -15461,11 +15461,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -15481,19 +15481,19 @@
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>25</v>
@@ -15517,11 +15517,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -15537,19 +15537,19 @@
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L37">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>25</v>
@@ -15573,11 +15573,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -15593,19 +15593,19 @@
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L38">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>25</v>
@@ -15629,11 +15629,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -15649,19 +15649,19 @@
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L39">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P39">
         <v>25</v>
@@ -15685,11 +15685,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -15705,19 +15705,19 @@
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P40">
         <v>25</v>
@@ -15741,11 +15741,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -15761,19 +15761,19 @@
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>25</v>
@@ -15797,11 +15797,11 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -15817,19 +15817,19 @@
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L42">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>30</v>
@@ -15853,11 +15853,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -15873,19 +15873,19 @@
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L43">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>30</v>
@@ -15909,11 +15909,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -15929,19 +15929,19 @@
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44">
         <v>30</v>
@@ -15965,11 +15965,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -15985,19 +15985,19 @@
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L45">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45">
         <v>30</v>
@@ -16021,11 +16021,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -16041,19 +16041,19 @@
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L46">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P46">
         <v>30</v>
@@ -16077,11 +16077,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -16097,19 +16097,19 @@
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <v>35</v>
@@ -16133,11 +16133,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -16153,19 +16153,19 @@
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L48">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P48">
         <v>35</v>
@@ -16189,11 +16189,11 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -16209,19 +16209,19 @@
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L49">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>35</v>
@@ -16245,11 +16245,11 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -16265,19 +16265,19 @@
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L50">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P50">
         <v>35</v>
@@ -16301,11 +16301,11 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -16321,19 +16321,19 @@
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L51">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P51">
         <v>35</v>
@@ -16357,11 +16357,11 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -16377,19 +16377,19 @@
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L52">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>40</v>
@@ -16413,11 +16413,11 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -16433,19 +16433,19 @@
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P53">
         <v>40</v>
@@ -16469,11 +16469,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -16489,19 +16489,19 @@
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K54">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L54">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P54">
         <v>40</v>
@@ -16525,11 +16525,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -16545,19 +16545,19 @@
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K55">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L55">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P55">
         <v>40</v>
@@ -16581,11 +16581,11 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -16601,19 +16601,19 @@
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L56">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P56">
         <v>40</v>
@@ -16637,11 +16637,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -16657,19 +16657,19 @@
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K57">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L57">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P57">
         <v>45</v>
@@ -16693,11 +16693,11 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -16713,19 +16713,19 @@
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L58">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P58">
         <v>45</v>
@@ -16749,11 +16749,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -16769,19 +16769,19 @@
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K59">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L59">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P59">
         <v>45</v>
@@ -16805,11 +16805,11 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -16825,19 +16825,19 @@
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L60">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>45</v>
@@ -16861,11 +16861,11 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -16881,19 +16881,19 @@
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L61">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P61">
         <v>45</v>
@@ -16917,11 +16917,11 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -16937,19 +16937,19 @@
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L62">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P62">
         <v>50</v>
@@ -16973,11 +16973,11 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -16993,19 +16993,19 @@
       </c>
       <c r="J63">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K63">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>50</v>
@@ -17029,11 +17029,11 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -17049,19 +17049,19 @@
       </c>
       <c r="J64">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L64">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>50</v>
@@ -17085,11 +17085,11 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -17105,19 +17105,19 @@
       </c>
       <c r="J65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L65">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>50</v>
@@ -17141,11 +17141,11 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -17161,19 +17161,19 @@
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L66">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -17196,12 +17196,12 @@
         <v>553</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" si="9">INT($A67/2)</f>
-        <v>33</v>
+        <f t="shared" ref="D67:D101" si="9">INT($A67/4)</f>
+        <v>16</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="10">INT(($A67+1)/2)</f>
-        <v>33</v>
+        <f t="shared" ref="E67:E101" si="10">INT(($A67+1)/3)</f>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -17216,20 +17216,20 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J101" si="11">INT(A67/13)</f>
-        <v>5</v>
+        <f t="shared" ref="J67:J101" si="11">INT(A67/20)</f>
+        <v>3</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K101" si="12">INT(A67/7)+1</f>
-        <v>10</v>
+        <f t="shared" ref="K67:K101" si="12">INT(A67/12)+1</f>
+        <v>6</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L101" si="13">INT(A67/15)</f>
+        <f t="shared" ref="L67:L101" si="13">INT(A67/25)</f>
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M101" si="14">INT(A67/20)+1</f>
         <v>4</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M101" si="14">INT(A67/10)+1</f>
-        <v>7</v>
       </c>
       <c r="P67">
         <v>55</v>
@@ -17253,11 +17253,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -17273,19 +17273,19 @@
       </c>
       <c r="J68">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L68">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P68">
         <v>55</v>
@@ -17309,11 +17309,11 @@
       </c>
       <c r="D69">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -17329,19 +17329,19 @@
       </c>
       <c r="J69">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L69">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M69">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P69">
         <v>55</v>
@@ -17365,11 +17365,11 @@
       </c>
       <c r="D70">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -17385,19 +17385,19 @@
       </c>
       <c r="J70">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L70">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>55</v>
@@ -17421,11 +17421,11 @@
       </c>
       <c r="D71">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -17441,19 +17441,19 @@
       </c>
       <c r="J71">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L71">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P71">
         <v>55</v>
@@ -17477,11 +17477,11 @@
       </c>
       <c r="D72">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -17497,19 +17497,19 @@
       </c>
       <c r="J72">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -17533,11 +17533,11 @@
       </c>
       <c r="D73">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -17553,19 +17553,19 @@
       </c>
       <c r="J73">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L73">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P73">
         <v>60</v>
@@ -17589,11 +17589,11 @@
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -17609,19 +17609,19 @@
       </c>
       <c r="J74">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L74">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P74">
         <v>60</v>
@@ -17645,11 +17645,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -17665,19 +17665,19 @@
       </c>
       <c r="J75">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L75">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P75">
         <v>60</v>
@@ -17701,11 +17701,11 @@
       </c>
       <c r="D76">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -17721,19 +17721,19 @@
       </c>
       <c r="J76">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L76">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P76">
         <v>60</v>
@@ -17757,11 +17757,11 @@
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -17777,19 +17777,19 @@
       </c>
       <c r="J77">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L77">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P77">
         <v>70</v>
@@ -17813,11 +17813,11 @@
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -17833,19 +17833,19 @@
       </c>
       <c r="J78">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L78">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P78">
         <v>70</v>
@@ -17869,11 +17869,11 @@
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -17889,19 +17889,19 @@
       </c>
       <c r="J79">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L79">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P79">
         <v>70</v>
@@ -17925,11 +17925,11 @@
       </c>
       <c r="D80">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -17945,19 +17945,19 @@
       </c>
       <c r="J80">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L80">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M80">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P80">
         <v>70</v>
@@ -17981,11 +17981,11 @@
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -18001,19 +18001,19 @@
       </c>
       <c r="J81">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L81">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P81">
         <v>70</v>
@@ -18037,11 +18037,11 @@
       </c>
       <c r="D82">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -18057,19 +18057,19 @@
       </c>
       <c r="J82">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L82">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M82">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P82">
         <v>80</v>
@@ -18093,11 +18093,11 @@
       </c>
       <c r="D83">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -18113,19 +18113,19 @@
       </c>
       <c r="J83">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L83">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P83">
         <v>80</v>
@@ -18149,11 +18149,11 @@
       </c>
       <c r="D84">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -18169,19 +18169,19 @@
       </c>
       <c r="J84">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L84">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M84">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P84">
         <v>80</v>
@@ -18205,11 +18205,11 @@
       </c>
       <c r="D85">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -18225,19 +18225,19 @@
       </c>
       <c r="J85">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K85">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L85">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M85">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P85">
         <v>80</v>
@@ -18261,11 +18261,11 @@
       </c>
       <c r="D86">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E86">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -18281,19 +18281,19 @@
       </c>
       <c r="J86">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K86">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L86">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M86">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P86">
         <v>80</v>
@@ -18317,11 +18317,11 @@
       </c>
       <c r="D87">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E87">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -18337,19 +18337,19 @@
       </c>
       <c r="J87">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K87">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L87">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M87">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P87">
         <v>90</v>
@@ -18373,11 +18373,11 @@
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E88">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -18393,19 +18393,19 @@
       </c>
       <c r="J88">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K88">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L88">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M88">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P88">
         <v>90</v>
@@ -18429,11 +18429,11 @@
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -18449,19 +18449,19 @@
       </c>
       <c r="J89">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K89">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L89">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M89">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P89">
         <v>90</v>
@@ -18485,11 +18485,11 @@
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E90">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -18505,19 +18505,19 @@
       </c>
       <c r="J90">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K90">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L90">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M90">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P90">
         <v>90</v>
@@ -18541,11 +18541,11 @@
       </c>
       <c r="D91">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -18561,19 +18561,19 @@
       </c>
       <c r="J91">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K91">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L91">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M91">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P91">
         <v>90</v>
@@ -18597,11 +18597,11 @@
       </c>
       <c r="D92">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -18617,19 +18617,19 @@
       </c>
       <c r="J92">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K92">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L92">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M92">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P92">
         <v>100</v>
@@ -18653,11 +18653,11 @@
       </c>
       <c r="D93">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E93">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -18673,19 +18673,19 @@
       </c>
       <c r="J93">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K93">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L93">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M93">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P93">
         <v>100</v>
@@ -18709,11 +18709,11 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -18729,19 +18729,19 @@
       </c>
       <c r="J94">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K94">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L94">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M94">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P94">
         <v>100</v>
@@ -18765,11 +18765,11 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E95">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -18785,19 +18785,19 @@
       </c>
       <c r="J95">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K95">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L95">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P95">
         <v>100</v>
@@ -18821,11 +18821,11 @@
       </c>
       <c r="D96">
         <f t="shared" si="9"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -18841,19 +18841,19 @@
       </c>
       <c r="J96">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K96">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L96">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M96">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P96">
         <v>100</v>
@@ -18877,11 +18877,11 @@
       </c>
       <c r="D97">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E97">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -18897,19 +18897,19 @@
       </c>
       <c r="J97">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K97">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L97">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M97">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P97">
         <v>110</v>
@@ -18933,11 +18933,11 @@
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E98">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -18953,19 +18953,19 @@
       </c>
       <c r="J98">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K98">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L98">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P98">
         <v>110</v>
@@ -18989,11 +18989,11 @@
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E99">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -19009,19 +19009,19 @@
       </c>
       <c r="J99">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K99">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L99">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M99">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P99">
         <v>110</v>
@@ -19045,11 +19045,11 @@
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E100">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -19065,19 +19065,19 @@
       </c>
       <c r="J100">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K100">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L100">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M100">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P100">
         <v>110</v>
@@ -19101,11 +19101,11 @@
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -19121,19 +19121,19 @@
       </c>
       <c r="J101">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K101">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L101">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M101">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P101">
         <v>110</v>
@@ -19145,6 +19145,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19153,8 +19154,8 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -19838,7 +19839,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="7"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -19880,7 +19881,7 @@
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -19894,7 +19895,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -19950,7 +19951,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -20006,7 +20007,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -20062,7 +20063,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="7"/>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -20118,7 +20119,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -20160,7 +20161,7 @@
         <v>4</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -20174,7 +20175,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -20216,7 +20217,7 @@
         <v>4</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -20230,7 +20231,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -20272,7 +20273,7 @@
         <v>4</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -20286,7 +20287,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -20328,7 +20329,7 @@
         <v>4</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -20342,7 +20343,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -20398,7 +20399,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="7"/>
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -20440,7 +20441,7 @@
         <v>5</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -20454,7 +20455,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="7"/>
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -20496,7 +20497,7 @@
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -20510,7 +20511,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="7"/>
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -20552,7 +20553,7 @@
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -20566,7 +20567,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="7"/>
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -20608,7 +20609,7 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -20622,7 +20623,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="7"/>
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -20664,7 +20665,7 @@
         <v>5</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -20678,7 +20679,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="7"/>
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -20720,7 +20721,7 @@
         <v>5</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -20734,7 +20735,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="7"/>
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -20776,7 +20777,7 @@
         <v>5</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -20790,7 +20791,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="7"/>
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -20832,7 +20833,7 @@
         <v>5</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -20846,7 +20847,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="7"/>
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -20888,7 +20889,7 @@
         <v>5</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -20902,7 +20903,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="7"/>
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -20944,7 +20945,7 @@
         <v>7</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -20958,7 +20959,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="7"/>
-        <v>481</v>
+        <v>585</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -21000,7 +21001,7 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -21014,7 +21015,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="7"/>
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -21056,7 +21057,7 @@
         <v>7</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -21070,7 +21071,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="7"/>
-        <v>531</v>
+        <v>655</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -21112,7 +21113,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -21126,7 +21127,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="7"/>
-        <v>556</v>
+        <v>690</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -21168,7 +21169,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -21182,7 +21183,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="7"/>
-        <v>581</v>
+        <v>725</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -21224,7 +21225,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -21238,7 +21239,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="7"/>
-        <v>606</v>
+        <v>765</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -21280,7 +21281,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -21294,7 +21295,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="7"/>
-        <v>631</v>
+        <v>805</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -21336,7 +21337,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -21350,7 +21351,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="7"/>
-        <v>656</v>
+        <v>845</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -21392,7 +21393,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -21406,7 +21407,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>681</v>
+        <v>885</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -21448,7 +21449,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -21462,7 +21463,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>716</v>
+        <v>925</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -21504,7 +21505,7 @@
         <v>10</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -21518,7 +21519,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>751</v>
+        <v>970</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -21560,7 +21561,7 @@
         <v>10</v>
       </c>
       <c r="Q43">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
@@ -21574,7 +21575,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>786</v>
+        <v>1015</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -21616,7 +21617,7 @@
         <v>10</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -21630,7 +21631,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>821</v>
+        <v>1060</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -21672,7 +21673,7 @@
         <v>10</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -21686,7 +21687,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>856</v>
+        <v>1105</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -21728,7 +21729,7 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -21742,7 +21743,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>891</v>
+        <v>1150</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -21784,7 +21785,7 @@
         <v>10</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -21798,7 +21799,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="7"/>
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -21840,7 +21841,7 @@
         <v>10</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -21854,7 +21855,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="7"/>
-        <v>961</v>
+        <v>1250</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -21896,7 +21897,7 @@
         <v>10</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -21910,7 +21911,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="7"/>
-        <v>996</v>
+        <v>1300</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -21952,7 +21953,7 @@
         <v>10</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
@@ -21966,7 +21967,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="7"/>
-        <v>1031</v>
+        <v>1350</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -22008,7 +22009,7 @@
         <v>10</v>
       </c>
       <c r="Q51">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -22022,7 +22023,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>1076</v>
+        <v>1400</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -22064,7 +22065,7 @@
         <v>13</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -22078,7 +22079,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>1121</v>
+        <v>1455</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -22120,7 +22121,7 @@
         <v>13</v>
       </c>
       <c r="Q53">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
@@ -22134,7 +22135,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>1166</v>
+        <v>1510</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -22176,7 +22177,7 @@
         <v>13</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
@@ -22190,7 +22191,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>1211</v>
+        <v>1565</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -22232,7 +22233,7 @@
         <v>13</v>
       </c>
       <c r="Q55">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
@@ -22246,7 +22247,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>1256</v>
+        <v>1620</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -22288,7 +22289,7 @@
         <v>13</v>
       </c>
       <c r="Q56">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
@@ -22302,7 +22303,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>1301</v>
+        <v>1675</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -22344,7 +22345,7 @@
         <v>13</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -22358,7 +22359,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="7"/>
-        <v>1346</v>
+        <v>1735</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -22400,7 +22401,7 @@
         <v>13</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
@@ -22414,7 +22415,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="7"/>
-        <v>1391</v>
+        <v>1795</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -22456,7 +22457,7 @@
         <v>13</v>
       </c>
       <c r="Q59">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
@@ -22470,7 +22471,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="7"/>
-        <v>1436</v>
+        <v>1855</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -22512,7 +22513,7 @@
         <v>13</v>
       </c>
       <c r="Q60">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
@@ -22526,7 +22527,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="7"/>
-        <v>1481</v>
+        <v>1915</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -22568,7 +22569,7 @@
         <v>13</v>
       </c>
       <c r="Q61">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
@@ -22582,7 +22583,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="7"/>
-        <v>1541</v>
+        <v>1975</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -22638,7 +22639,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="7"/>
-        <v>1601</v>
+        <v>2050</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -22680,7 +22681,7 @@
         <v>17</v>
       </c>
       <c r="Q63">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
@@ -22694,7 +22695,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="7"/>
-        <v>1661</v>
+        <v>2125</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -22736,7 +22737,7 @@
         <v>17</v>
       </c>
       <c r="Q64">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -22750,7 +22751,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="7"/>
-        <v>1721</v>
+        <v>2200</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -22792,7 +22793,7 @@
         <v>17</v>
       </c>
       <c r="Q65">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -22806,7 +22807,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="7"/>
-        <v>1781</v>
+        <v>2275</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -22848,7 +22849,7 @@
         <v>17</v>
       </c>
       <c r="Q66">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -22862,7 +22863,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="7"/>
-        <v>1841</v>
+        <v>2350</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -22904,7 +22905,7 @@
         <v>17</v>
       </c>
       <c r="Q67">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -22918,7 +22919,7 @@
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="16">C67+Q68</f>
-        <v>1901</v>
+        <v>2425</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -22960,7 +22961,7 @@
         <v>17</v>
       </c>
       <c r="Q68">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -22974,7 +22975,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="16"/>
-        <v>1961</v>
+        <v>2500</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -23016,7 +23017,7 @@
         <v>17</v>
       </c>
       <c r="Q69">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
@@ -23030,7 +23031,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="16"/>
-        <v>2021</v>
+        <v>2575</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -23072,7 +23073,7 @@
         <v>17</v>
       </c>
       <c r="Q70">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -23086,7 +23087,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="16"/>
-        <v>2081</v>
+        <v>2650</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -23128,7 +23129,7 @@
         <v>17</v>
       </c>
       <c r="Q71">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
@@ -23142,7 +23143,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="16"/>
-        <v>2161</v>
+        <v>2740</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -23184,7 +23185,7 @@
         <v>23</v>
       </c>
       <c r="Q72">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -23198,7 +23199,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="16"/>
-        <v>2241</v>
+        <v>2830</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -23240,7 +23241,7 @@
         <v>23</v>
       </c>
       <c r="Q73">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -23254,7 +23255,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="16"/>
-        <v>2321</v>
+        <v>2920</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -23296,7 +23297,7 @@
         <v>23</v>
       </c>
       <c r="Q74">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
@@ -23310,7 +23311,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="16"/>
-        <v>2401</v>
+        <v>3010</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -23352,7 +23353,7 @@
         <v>23</v>
       </c>
       <c r="Q75">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
@@ -23366,7 +23367,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="16"/>
-        <v>2481</v>
+        <v>3100</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -23408,7 +23409,7 @@
         <v>23</v>
       </c>
       <c r="Q76">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -23422,7 +23423,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="16"/>
-        <v>2561</v>
+        <v>3190</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -23464,7 +23465,7 @@
         <v>23</v>
       </c>
       <c r="Q77">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -23478,7 +23479,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="16"/>
-        <v>2641</v>
+        <v>3280</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -23520,7 +23521,7 @@
         <v>23</v>
       </c>
       <c r="Q78">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -23534,7 +23535,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="16"/>
-        <v>2721</v>
+        <v>3370</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -23576,7 +23577,7 @@
         <v>23</v>
       </c>
       <c r="Q79">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -23590,7 +23591,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="16"/>
-        <v>2801</v>
+        <v>3460</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -23632,7 +23633,7 @@
         <v>23</v>
       </c>
       <c r="Q80">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -23646,7 +23647,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="16"/>
-        <v>2881</v>
+        <v>3550</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -23688,7 +23689,7 @@
         <v>23</v>
       </c>
       <c r="Q81">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -23702,7 +23703,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="16"/>
-        <v>2991</v>
+        <v>3660</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -23758,7 +23759,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="16"/>
-        <v>3101</v>
+        <v>3770</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -23814,7 +23815,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="16"/>
-        <v>3211</v>
+        <v>3880</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -23870,7 +23871,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="16"/>
-        <v>3321</v>
+        <v>3990</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -23926,7 +23927,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="16"/>
-        <v>3431</v>
+        <v>4100</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -23982,7 +23983,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="16"/>
-        <v>3541</v>
+        <v>4210</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -24038,7 +24039,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="16"/>
-        <v>3651</v>
+        <v>4320</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -24094,7 +24095,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="16"/>
-        <v>3761</v>
+        <v>4430</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -24150,7 +24151,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="16"/>
-        <v>3871</v>
+        <v>4540</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -24206,7 +24207,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="16"/>
-        <v>3981</v>
+        <v>4650</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -24262,7 +24263,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="16"/>
-        <v>4121</v>
+        <v>4790</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -24318,7 +24319,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="16"/>
-        <v>4261</v>
+        <v>4930</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -24374,7 +24375,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="16"/>
-        <v>4401</v>
+        <v>5070</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -24430,7 +24431,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="16"/>
-        <v>4541</v>
+        <v>5210</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -24486,7 +24487,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="16"/>
-        <v>4681</v>
+        <v>5350</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -24542,7 +24543,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="16"/>
-        <v>4821</v>
+        <v>5490</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -24598,7 +24599,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="16"/>
-        <v>4961</v>
+        <v>5630</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -24654,7 +24655,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="16"/>
-        <v>5101</v>
+        <v>5770</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -24710,7 +24711,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="16"/>
-        <v>5241</v>
+        <v>5910</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -24766,7 +24767,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="16"/>
-        <v>5381</v>
+        <v>6050</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -24822,9 +24823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M103" sqref="M103"/>
+      <selection pane="bottomLeft" activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
